--- a/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
+++ b/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15915" windowHeight="3600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="3885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -13,18 +13,20 @@
     <sheet name="Settings" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Action_Keywords">Settings!$D$2:$D$8</definedName>
-    <definedName name="Home_Page">Settings!$B$2:$B$8</definedName>
-    <definedName name="Login_Page">Settings!$C$2:$C$8</definedName>
-    <definedName name="Page_Name">Settings!$A$2:$A$8</definedName>
+    <definedName name="action_keywords">Settings!$E$2:$E$8</definedName>
+    <definedName name="appSettings_textOptions_page">Settings!$D$2:$D$9</definedName>
+    <definedName name="dashboard_navigation">Settings!$C$2:$C$11</definedName>
+    <definedName name="login_page">Settings!$B$2:$B$4</definedName>
+    <definedName name="page_name">Settings!$A$2:$A$4</definedName>
+    <definedName name="txtbx_upperText">Settings!$D$2:$D$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:I9"/>
+  <oleSize ref="D1:I10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>Description</t>
   </si>
@@ -50,18 +52,9 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>LogIn in to the Online Store Application</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
     <t>TS_002</t>
   </si>
   <si>
@@ -77,33 +70,12 @@
     <t>TS_007</t>
   </si>
   <si>
-    <t>testuser_1</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>Click on My Account button on the Top Right location</t>
-  </si>
-  <si>
-    <t>Enter the Username in the UserName field</t>
-  </si>
-  <si>
-    <t>Click on Login button</t>
-  </si>
-  <si>
-    <t>Close the Browser</t>
-  </si>
-  <si>
     <t>Open the Browser</t>
   </si>
   <si>
     <t>Login_01</t>
   </si>
   <si>
-    <t>LogIn_01</t>
-  </si>
-  <si>
     <t>TS_ID</t>
   </si>
   <si>
@@ -113,88 +85,214 @@
     <t>Browser</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Page Object</t>
+  </si>
+  <si>
+    <t>Action Keyword</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>waitFor</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>dashboard_navigation</t>
+  </si>
+  <si>
+    <t>login_page</t>
+  </si>
+  <si>
+    <t>page name</t>
+  </si>
+  <si>
+    <t>login_page objects</t>
+  </si>
+  <si>
+    <t>dashboard_navigation objects</t>
+  </si>
+  <si>
+    <t>appSettings_textOptions_page</t>
+  </si>
+  <si>
+    <t>txtbx_username</t>
+  </si>
+  <si>
+    <t>txtbx_password</t>
+  </si>
+  <si>
+    <t>btn_login</t>
+  </si>
+  <si>
+    <t>btn_dashboard</t>
+  </si>
+  <si>
+    <t>btn_appSettings</t>
+  </si>
+  <si>
+    <t>btn_streams</t>
+  </si>
+  <si>
+    <t>btn_rotatingImages</t>
+  </si>
+  <si>
+    <t>btn_events</t>
+  </si>
+  <si>
+    <t>txtbx_upperText</t>
+  </si>
+  <si>
+    <t>txtbx_lowerText</t>
+  </si>
+  <si>
+    <t>btn_saveTextOptions</t>
+  </si>
+  <si>
+    <t>btn_appSettings_appUIComponents</t>
+  </si>
+  <si>
+    <t>btn_appSettings_menuItems</t>
+  </si>
+  <si>
+    <t>btn_appSettings_textOptions</t>
+  </si>
+  <si>
+    <t>btn_appSettings_editPreferences</t>
+  </si>
+  <si>
+    <t>btn_appSettings_editVoiceEmails</t>
+  </si>
+  <si>
+    <t>appSettings_textOptions_page objects</t>
+  </si>
+  <si>
+    <t>action keywords</t>
+  </si>
+  <si>
+    <t>Login in to Radio App</t>
+  </si>
+  <si>
+    <t>Input valid user name</t>
+  </si>
+  <si>
+    <t>Input valid password</t>
+  </si>
+  <si>
+    <t>Click the App Settings button</t>
+  </si>
+  <si>
+    <t>Click the Login button</t>
+  </si>
+  <si>
+    <t>Click the App Settings - Text Options button</t>
+  </si>
+  <si>
+    <t>Input data in the Upper Text textbox</t>
+  </si>
+  <si>
+    <t>Input data in the Lower Text textbox</t>
+  </si>
+  <si>
+    <t>Verify the Upper Text text</t>
+  </si>
+  <si>
+    <t>Verify the Lower Text text</t>
+  </si>
+  <si>
+    <t>txt_upperText</t>
+  </si>
+  <si>
+    <t>txt_lowerText</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>softway</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Input Data 1</t>
+  </si>
+  <si>
+    <t>Input Data 2</t>
+  </si>
+  <si>
+    <t>Input Data 3</t>
+  </si>
+  <si>
+    <t>Navigation URL</t>
+  </si>
+  <si>
+    <t>SOFTWAY RADIO</t>
+  </si>
+  <si>
+    <t>SPIRIT 105.3</t>
+  </si>
+  <si>
+    <t>TextOptions_01</t>
+  </si>
+  <si>
+    <t>Close browser</t>
+  </si>
+  <si>
+    <t>Exit_01</t>
+  </si>
+  <si>
+    <t>btn_scrollingText</t>
+  </si>
+  <si>
+    <t>txtbx_scrollingText</t>
+  </si>
+  <si>
+    <t>txt_scrollingText</t>
+  </si>
+  <si>
+    <t>TextOptions_02</t>
+  </si>
+  <si>
+    <t>Click the Scrolling Text button</t>
+  </si>
+  <si>
+    <t>Input data in the Scrolling Text textbox</t>
+  </si>
+  <si>
+    <t>Click the Save Text Options button</t>
+  </si>
+  <si>
+    <t>Verify the Scrolling Text text</t>
+  </si>
+  <si>
+    <t>this is scrolling text</t>
+  </si>
+  <si>
+    <t>Update the Lower / Upper Text Options</t>
+  </si>
+  <si>
+    <t>Update the Scrolling Text Options</t>
+  </si>
+  <si>
     <t>Mozilla</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Page Name</t>
-  </si>
-  <si>
-    <t>Home_Page Objects</t>
-  </si>
-  <si>
-    <t>LogIn_Page Objects</t>
-  </si>
-  <si>
-    <t>btn_MyAccount</t>
-  </si>
-  <si>
-    <t>txtbx_UserName</t>
-  </si>
-  <si>
-    <t>txtbx_Password</t>
-  </si>
-  <si>
-    <t>btn_LogOut</t>
-  </si>
-  <si>
-    <t>btn_LogIn</t>
-  </si>
-  <si>
-    <t>Action Keywords</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Home_Page</t>
-  </si>
-  <si>
-    <t>LogIn_Page</t>
-  </si>
-  <si>
-    <t>Wait for Some time</t>
-  </si>
-  <si>
-    <t>Enter the Password in the Password field</t>
-  </si>
-  <si>
-    <t>Page Object</t>
-  </si>
-  <si>
-    <t>Action Keyword</t>
-  </si>
-  <si>
-    <t>Data Set</t>
-  </si>
-  <si>
-    <t>waitFor</t>
-  </si>
-  <si>
-    <t>testuser_3</t>
-  </si>
-  <si>
-    <t>LogIn_02</t>
-  </si>
-  <si>
-    <t>Login_02</t>
-  </si>
-  <si>
-    <t>TS_003</t>
-  </si>
-  <si>
-    <t>TS_008</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -246,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -373,6 +471,201 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -548,6 +841,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -853,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -877,34 +1183,56 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>56</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -914,60 +1242,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="38.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7"/>
@@ -975,19 +1303,17 @@
         <v>2</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>'Test Data'!D2</f>
+        <f>'Test Data'!$D$2</f>
         <v>Mozilla</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -998,162 +1324,388 @@
         <v>4</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f>'Test Data'!B2</f>
+        <v>softway</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f>'Test Data'!C2</f>
+        <v>password</v>
+      </c>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f>'Test Data'!B2</f>
-        <v>testuser_3</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f>'Test Data'!C2</f>
-        <v>Test@123</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f>'Test Data'!F3</f>
+        <v>SOFTWAY RADIO</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="13" t="str">
+        <f>'Test Data'!G3</f>
+        <v>SPIRIT 105.3</v>
+      </c>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="13" t="str">
+        <f>'Test Data'!F3</f>
+        <v>SOFTWAY RADIO</v>
+      </c>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f>'Test Data'!F4</f>
+        <v>this is scrolling text</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="12" t="str">
+        <f>'Test Data'!F4</f>
+        <v>this is scrolling text</v>
+      </c>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="21"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8 D9">
-      <formula1>Page_Name</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F19 F2:F6 F7:F13">
+      <formula1>action_keywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F9">
-      <formula1>Action_Keywords</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D18 D2:D6 D7:D13">
+      <formula1>page_name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8 E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E18 E2:E6 E7:E13">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1164,198 +1716,297 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
+++ b/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="3885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="4170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="txtbx_upperText">Settings!$D$2:$D$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="D1:I10"/>
+  <oleSize ref="C1:G11"/>
 </workbook>
 </file>
 
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
+++ b/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="4170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="3885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="txtbx_upperText">Settings!$D$2:$D$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="C1:G11"/>
+  <oleSize ref="D1:I10"/>
 </workbook>
 </file>
 
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
